--- a/public/doc/KerryExpressImportTemplate.xlsx
+++ b/public/doc/KerryExpressImportTemplate.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usern\API-ShopOrganic-eCommerce\public\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usern\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AEC2AA6-57BE-4CE4-8C45-E6BA079A25C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21BED36C-5CA9-4F89-8B80-40688A3657BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="36">
   <si>
     <t>KERRY EXPRESS (ส่งไว ส่งชัวร์ ทั่วไทย)</t>
   </si>
@@ -138,6 +139,69 @@
     <t>COD Amt (Baht)</t>
   </si>
   <si>
+    <t>ประเภทพัสดุ/Parcel Type (Box/Envelop/Seal bag)</t>
+  </si>
+  <si>
+    <r>
+      <t>น้ำหนัก/Weight</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(kg)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>กว้าง/Width</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(cm)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ยาว/Length</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(cm)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>สูง/Height</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(cm)</t>
+    </r>
+  </si>
+  <si>
     <t>Remark</t>
   </si>
   <si>
@@ -178,6 +242,30 @@
   </si>
   <si>
     <t>สมชาย</t>
+  </si>
+  <si>
+    <t>ประเภทพัสดุ/Parcel Type (Box/Envelope/Seal bag)</t>
+  </si>
+  <si>
+    <t>น้ำหนัก/Weight(kg)</t>
+  </si>
+  <si>
+    <t>กว้าง/Width(cm)</t>
+  </si>
+  <si>
+    <t>ยาว/Length(cm)</t>
+  </si>
+  <si>
+    <t>สูง/Height(cm)</t>
+  </si>
+  <si>
+    <t>กล่อง/Box</t>
+  </si>
+  <si>
+    <t>ซองเอกสาร/Envelope</t>
+  </si>
+  <si>
+    <t>ซองพลาสติก/Seal bag</t>
   </si>
 </sst>
 </file>
@@ -271,7 +359,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -285,6 +373,24 @@
     <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -604,43 +710,48 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:O8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.09765625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.296875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="3.09765625" style="1" customWidth="1"/>
     <col min="2" max="2" width="24.59765625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.8984375" style="1" customWidth="1"/>
     <col min="4" max="4" width="61.8984375" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="29.59765625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.8984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.8984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.09765625" style="1"/>
+    <col min="7" max="7" width="25.69921875" style="18" customWidth="1"/>
+    <col min="8" max="11" width="19.59765625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="12.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.09765625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
+      <c r="G1" s="13"/>
     </row>
-    <row r="2" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>1</v>
       </c>
+      <c r="G2" s="14"/>
     </row>
-    <row r="3" spans="1:10" s="5" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" s="5" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>2</v>
       </c>
+      <c r="G3" s="14"/>
     </row>
-    <row r="4" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" s="6" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>3</v>
       </c>
@@ -659,7 +770,7 @@
       <c r="F4" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="G4" s="15" t="s">
         <v>9</v>
       </c>
       <c r="H4" s="8" t="s">
@@ -671,42 +782,66 @@
       <c r="J4" s="8" t="s">
         <v>12</v>
       </c>
+      <c r="K4" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="L4" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="M4" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="N4" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="O4" s="8" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="5" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="H5" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="I5" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="J5" s="9" t="s">
-        <v>22</v>
+        <v>23</v>
+      </c>
+      <c r="G5" s="16"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="M5" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="N5" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="O5" s="9" t="s">
+        <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G6" s="14"/>
+    </row>
+    <row r="7" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G7" s="14"/>
+    </row>
+    <row r="8" spans="1:15" s="2" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>3</v>
       </c>
@@ -725,51 +860,116 @@
       <c r="F8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G8" s="3" t="s">
-        <v>9</v>
+      <c r="G8" s="17" t="s">
+        <v>28</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>12</v>
+        <v>31</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{FCF66E0C-E403-45FE-A59D-C6D90B4AB5FB}">
+          <x14:formula1>
+            <xm:f>Sheet2!$A$1:$A$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>G9:G1048576</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E15F078E-7CF5-43F5-B655-0212738A93F7}">
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101007585F40ED9BF74439919E1D49D4CC625" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="53df33bae18a23703e7ec4a7c1c12581">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="56e88279-5722-41de-9873-9890468dd862" xmlns:ns4="cc29b4c7-83ab-418f-af75-c3abf6d0e5cd" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f068023077f4e3709be8a7fab3cf418b" ns3:_="" ns4:_="">
-    <xsd:import namespace="56e88279-5722-41de-9873-9890468dd862"/>
-    <xsd:import namespace="cc29b4c7-83ab-418f-af75-c3abf6d0e5cd"/>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="7f605b97-df72-4e92-a27e-764f860c5a2f" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101005D933B68A6258345B92CDBC6D3CBF146" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="359eb917a3404d3e0199fbb8b61086f7">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="7f605b97-df72-4e92-a27e-764f860c5a2f" xmlns:ns4="8f51e1e9-372b-42d0-b217-85bcc408f14a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0be91684b266e48f21fba53629736dff" ns3:_="" ns4:_="">
+    <xsd:import namespace="7f605b97-df72-4e92-a27e-764f860c5a2f"/>
+    <xsd:import namespace="8f51e1e9-372b-42d0-b217-85bcc408f14a"/>
     <xsd:element name="properties">
       <xsd:complexType>
         <xsd:sequence>
           <xsd:element name="documentManagement">
             <xsd:complexType>
               <xsd:all>
-                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
-                <xsd:element ref="ns3:SharingHintHash" minOccurs="0"/>
-                <xsd:element ref="ns4:MediaServiceMetadata" minOccurs="0"/>
-                <xsd:element ref="ns4:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns4:MediaServiceDateTaken" minOccurs="0"/>
-                <xsd:element ref="ns4:MediaLengthInSeconds" minOccurs="0"/>
-                <xsd:element ref="ns4:MediaServiceAutoTags" minOccurs="0"/>
-                <xsd:element ref="ns4:MediaServiceGenerationTime" minOccurs="0"/>
-                <xsd:element ref="ns4:MediaServiceEventHashCode" minOccurs="0"/>
-                <xsd:element ref="ns4:_activity" minOccurs="0"/>
-                <xsd:element ref="ns4:MediaServiceOCR" minOccurs="0"/>
-                <xsd:element ref="ns4:MediaServiceObjectDetectorVersions" minOccurs="0"/>
-                <xsd:element ref="ns4:MediaServiceSystemTags" minOccurs="0"/>
-                <xsd:element ref="ns4:MediaServiceSearchProperties" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns4:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns4:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns4:SharingHintHash" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaLengthInSeconds" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceAutoTags" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns3:_activity" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceSystemTags" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceSearchProperties" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -777,10 +977,76 @@
       </xsd:complexType>
     </xsd:element>
   </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="56e88279-5722-41de-9873-9890468dd862" elementFormDefault="qualified">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="7f605b97-df72-4e92-a27e-764f860c5a2f" elementFormDefault="qualified">
     <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="SharedWithUsers" ma:index="8" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="13" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="14" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoTags" ma:index="15" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="16" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="17" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="18" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="_activity" ma:index="19" nillable="true" ma:displayName="_activity" ma:hidden="true" ma:internalName="_activity">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="20" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSystemTags" ma:index="21" nillable="true" ma:displayName="MediaServiceSystemTags" ma:hidden="true" ma:internalName="MediaServiceSystemTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="22" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="8f51e1e9-372b-42d0-b217-85bcc408f14a" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithUsers" ma:index="10" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
       <xsd:complexType>
         <xsd:complexContent>
           <xsd:extension base="dms:UserMulti">
@@ -799,82 +1065,16 @@
         </xsd:complexContent>
       </xsd:complexType>
     </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="9" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+    <xsd:element name="SharedWithDetails" ma:index="11" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note">
           <xsd:maxLength value="255"/>
         </xsd:restriction>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="SharingHintHash" ma:index="10" nillable="true" ma:displayName="Sharing Hint Hash" ma:hidden="true" ma:internalName="SharingHintHash" ma:readOnly="true">
+    <xsd:element name="SharingHintHash" ma:index="12" nillable="true" ma:displayName="Sharing Hint Hash" ma:hidden="true" ma:internalName="SharingHintHash" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="cc29b4c7-83ab-418f-af75-c3abf6d0e5cd" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="MediaServiceMetadata" ma:index="11" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceFastMetadata" ma:index="12" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="13" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaLengthInSeconds" ma:index="14" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Unknown"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoTags" ma:index="15" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="16" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="17" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="_activity" ma:index="18" nillable="true" ma:displayName="_activity" ma:hidden="true" ma:internalName="_activity">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="19" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="20" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceSystemTags" ma:index="21" nillable="true" ma:displayName="MediaServiceSystemTags" ma:hidden="true" ma:internalName="MediaServiceSystemTags" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceSearchProperties" ma:index="22" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
@@ -977,14 +1177,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="cc29b4c7-83ab-418f-af75-c3abf6d0e5cd" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -995,30 +1187,30 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FA05C25F-98B8-477F-807B-3D0BD0131575}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DD849583-8306-49FF-A7FF-A221394080F6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="7f605b97-df72-4e92-a27e-764f860c5a2f"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B3BEB530-BB4D-4D84-A330-76BF1BC1CB44}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
     <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="56e88279-5722-41de-9873-9890468dd862"/>
-    <ds:schemaRef ds:uri="cc29b4c7-83ab-418f-af75-c3abf6d0e5cd"/>
+    <ds:schemaRef ds:uri="7f605b97-df72-4e92-a27e-764f860c5a2f"/>
+    <ds:schemaRef ds:uri="8f51e1e9-372b-42d0-b217-85bcc408f14a"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DD849583-8306-49FF-A7FF-A221394080F6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="cc29b4c7-83ab-418f-af75-c3abf6d0e5cd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
